--- a/实战资料/210729实战表.xlsx
+++ b/实战资料/210729实战表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="班主任" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>SZ210719实战表</t>
   </si>
@@ -170,16 +170,16 @@
     <t>李凯君</t>
   </si>
   <si>
-    <t>王昊</t>
-  </si>
-  <si>
-    <t>周伟立</t>
-  </si>
-  <si>
-    <t>钟文倩</t>
-  </si>
-  <si>
-    <t>何安宇</t>
+    <t>王昊1</t>
+  </si>
+  <si>
+    <t>周伟立5</t>
+  </si>
+  <si>
+    <t>钟文倩4</t>
+  </si>
+  <si>
+    <t>何安宇1</t>
   </si>
   <si>
     <t>五组</t>
@@ -200,13 +200,13 @@
     <t>李明哲</t>
   </si>
   <si>
-    <t>戴万明</t>
-  </si>
-  <si>
-    <t>周文奂</t>
-  </si>
-  <si>
-    <t>罗应柱</t>
+    <t>戴万明1</t>
+  </si>
+  <si>
+    <t>周文奂1</t>
+  </si>
+  <si>
+    <t>罗应柱5</t>
   </si>
   <si>
     <t>六组</t>
@@ -216,6 +216,21 @@
   </si>
   <si>
     <t>注：加粗字体为每组组长，共10组</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>有情况</t>
+  </si>
+  <si>
+    <t>联系不到</t>
+  </si>
+  <si>
+    <t>没做</t>
+  </si>
+  <si>
+    <t>进度慢</t>
   </si>
 </sst>
 </file>
@@ -223,10 +238,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -293,8 +308,91 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,22 +408,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,104 +451,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="39">
     <fill>
@@ -506,163 +521,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,71 +750,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -831,6 +781,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -839,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,19 +866,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,116 +887,116 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,9 +1014,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1097,9 +1109,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1457,15 +1466,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9.37962962962963" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="16384" width="9.375" style="1"/>
+    <col min="1" max="16384" width="9.37962962962963" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="39.95" customHeight="1" spans="2:13">
@@ -1491,15 +1500,14 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="32"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="5"/>
       <c r="K2" s="3"/>
       <c r="L2" s="4"/>
@@ -1509,299 +1517,329 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="41.1" customHeight="1" spans="1:17">
       <c r="A3"/>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="33" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="35">
         <v>2</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="44.1" customHeight="1" spans="1:17">
       <c r="A4"/>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="37" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="32" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="3">
         <v>3</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="42.95" customHeight="1" spans="1:17">
       <c r="A5"/>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>4</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="37" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="3">
         <v>4</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="40" t="s">
+      <c r="Q5" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:17">
       <c r="A6"/>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>5</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="40" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="3">
         <v>5</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="43" t="s">
+      <c r="Q6" s="41" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="39" customHeight="1" spans="1:15">
       <c r="A7"/>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>6</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="42" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="42" t="s">
         <v>54</v>
       </c>
       <c r="M7" s="3">
         <v>6</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="O7" s="25" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="41.1" customHeight="1" spans="1:15">
       <c r="A8"/>
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <v>7</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="43" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="41" t="s">
         <v>63</v>
       </c>
       <c r="M8" s="3">
         <v>7</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:13">
       <c r="A9"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="42" customHeight="1" spans="4:4">
       <c r="D10"/>
     </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="2:19">
+      <c r="B11" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="2:13">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1">
+        <v>4</v>
+      </c>
+      <c r="S11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:19">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="O12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13"/>
@@ -1826,7 +1864,7 @@
     <row r="18" spans="4:4">
       <c r="D18"/>
     </row>
-    <row r="19" ht="21" spans="4:4">
+    <row r="19" spans="4:4">
       <c r="D19"/>
     </row>
     <row r="20" spans="4:4">
